--- a/Detailed Results of Real System.xlsx
+++ b/Detailed Results of Real System.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Data And Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\文档\学生论文\Data And Results\Data And Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3141A0B5-2C84-4AB7-83C1-1F57B85BACE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E54F12-3D81-47FC-A2BC-F2A404D8C54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2796" yWindow="804" windowWidth="17280" windowHeight="9204" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 1" sheetId="1" r:id="rId1"/>
     <sheet name="Group 2" sheetId="2" r:id="rId2"/>
     <sheet name="Group 3" sheetId="3" r:id="rId3"/>
     <sheet name="Group 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Result of region division" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,9 +36,297 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="100">
   <si>
     <t>Number of training</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Bus 1</t>
+  </si>
+  <si>
+    <t>Bus 2</t>
+  </si>
+  <si>
+    <t>Bus 3</t>
+  </si>
+  <si>
+    <t>Bus 4</t>
+  </si>
+  <si>
+    <t>Bus 5</t>
+  </si>
+  <si>
+    <t>Bus 6</t>
+  </si>
+  <si>
+    <t>Bus 7</t>
+  </si>
+  <si>
+    <t>Bus 8</t>
+  </si>
+  <si>
+    <t>Bus 9</t>
+  </si>
+  <si>
+    <t>Bus 10</t>
+  </si>
+  <si>
+    <t>Bus 11</t>
+  </si>
+  <si>
+    <t>Bus 12</t>
+  </si>
+  <si>
+    <t>Bus 13</t>
+  </si>
+  <si>
+    <t>Bus 14</t>
+  </si>
+  <si>
+    <t>Bus 15</t>
+  </si>
+  <si>
+    <t>Bus 16</t>
+  </si>
+  <si>
+    <t>Bus 17</t>
+  </si>
+  <si>
+    <t>Bus 18</t>
+  </si>
+  <si>
+    <t>Bus 19</t>
+  </si>
+  <si>
+    <t>Bus 20</t>
+  </si>
+  <si>
+    <t>Bus 21</t>
+  </si>
+  <si>
+    <t>Bus 22</t>
+  </si>
+  <si>
+    <t>Bus 23</t>
+  </si>
+  <si>
+    <t>Bus 24</t>
+  </si>
+  <si>
+    <t>Bus 25</t>
+  </si>
+  <si>
+    <t>Bus 26</t>
+  </si>
+  <si>
+    <t>Bus 27</t>
+  </si>
+  <si>
+    <t>Bus 28</t>
+  </si>
+  <si>
+    <t>Bus 29</t>
+  </si>
+  <si>
+    <t>Bus 30</t>
+  </si>
+  <si>
+    <t>Bus 31</t>
+  </si>
+  <si>
+    <t>Bus 32</t>
+  </si>
+  <si>
+    <t>Bus 33</t>
+  </si>
+  <si>
+    <t>Bus 34</t>
+  </si>
+  <si>
+    <t>Bus 35</t>
+  </si>
+  <si>
+    <t>Bus 36</t>
+  </si>
+  <si>
+    <t>Bus 37</t>
+  </si>
+  <si>
+    <t>Bus 38</t>
+  </si>
+  <si>
+    <t>Bus 39</t>
+  </si>
+  <si>
+    <t>Bus 40</t>
+  </si>
+  <si>
+    <t>Bus 41</t>
+  </si>
+  <si>
+    <t>Bus 42</t>
+  </si>
+  <si>
+    <t>Bus 43</t>
+  </si>
+  <si>
+    <t>Bus 44</t>
+  </si>
+  <si>
+    <t>Bus 45</t>
+  </si>
+  <si>
+    <t>Bus 46</t>
+  </si>
+  <si>
+    <t>Bus 47</t>
+  </si>
+  <si>
+    <t>Bus 48</t>
+  </si>
+  <si>
+    <t>Bus 49</t>
+  </si>
+  <si>
+    <t>Bus 50</t>
+  </si>
+  <si>
+    <t>Bus 51</t>
+  </si>
+  <si>
+    <t>Bus 52</t>
+  </si>
+  <si>
+    <t>Bus 53</t>
+  </si>
+  <si>
+    <t>Bus 54</t>
+  </si>
+  <si>
+    <t>Bus 55</t>
+  </si>
+  <si>
+    <t>Bus 56</t>
+  </si>
+  <si>
+    <t>Bus 57</t>
+  </si>
+  <si>
+    <t>Bus 58</t>
+  </si>
+  <si>
+    <t>Bus 59</t>
+  </si>
+  <si>
+    <t>Bus 60</t>
+  </si>
+  <si>
+    <t>Bus 61</t>
+  </si>
+  <si>
+    <t>Bus 62</t>
+  </si>
+  <si>
+    <t>Bus 63</t>
+  </si>
+  <si>
+    <t>Bus 64</t>
+  </si>
+  <si>
+    <t>Bus 65</t>
+  </si>
+  <si>
+    <t>Bus 66</t>
+  </si>
+  <si>
+    <t>Bus 67</t>
+  </si>
+  <si>
+    <t>Bus 68</t>
+  </si>
+  <si>
+    <t>Bus 69</t>
+  </si>
+  <si>
+    <t>Bus 70</t>
+  </si>
+  <si>
+    <t>Bus 71</t>
+  </si>
+  <si>
+    <t>Bus 72</t>
+  </si>
+  <si>
+    <t>Bus 73</t>
+  </si>
+  <si>
+    <t>Bus 74</t>
+  </si>
+  <si>
+    <t>Bus 75</t>
+  </si>
+  <si>
+    <t>Bus 76</t>
+  </si>
+  <si>
+    <t>Bus 77</t>
+  </si>
+  <si>
+    <t>Bus 78</t>
+  </si>
+  <si>
+    <t>Bus 79</t>
+  </si>
+  <si>
+    <t>Bus 80</t>
+  </si>
+  <si>
+    <t>Bus 81</t>
+  </si>
+  <si>
+    <t>Bus 82</t>
+  </si>
+  <si>
+    <t>Bus 83</t>
+  </si>
+  <si>
+    <t>Bus 84</t>
+  </si>
+  <si>
+    <t>Bus 85</t>
+  </si>
+  <si>
+    <t>Bus 86</t>
+  </si>
+  <si>
+    <t>Bus 87</t>
+  </si>
+  <si>
+    <t>Bus 88</t>
+  </si>
+  <si>
+    <t>Bus 89</t>
+  </si>
+  <si>
+    <t>Bus 90</t>
+  </si>
+  <si>
+    <t>Bus 91</t>
+  </si>
+  <si>
+    <t>Area 1</t>
+  </si>
+  <si>
+    <t>Area 2</t>
+  </si>
+  <si>
+    <t>Area 3</t>
+  </si>
+  <si>
+    <t>Area 4</t>
   </si>
   <si>
     <r>
@@ -55,20 +346,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MW)</t>
+      <t>(GWh)</t>
     </r>
   </si>
   <si>
@@ -119,51 +400,6 @@
       <t>(%)</t>
     </r>
   </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <r>
-      <t>Ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">TEE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>W)</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -171,9 +407,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,20 +419,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF434343"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF434343"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -212,19 +441,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -263,19 +479,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,38 +799,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="4" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" customWidth="1"/>
+    <col min="2" max="4" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>46323.353840000003</v>
+      <c r="B2" s="5">
+        <v>46.323353840000003</v>
       </c>
       <c r="C2" s="4">
         <v>1.22914110840264</v>
@@ -623,12 +839,12 @@
         <v>1.8366574573233601</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>43718.971519999897</v>
+      <c r="B3" s="5">
+        <v>43.718971519999897</v>
       </c>
       <c r="C3" s="4">
         <v>1.34880987531658</v>
@@ -637,12 +853,12 @@
         <v>1.8712820964774299</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>48073.426879999999</v>
+      <c r="B4" s="5">
+        <v>48.07342688</v>
       </c>
       <c r="C4" s="4">
         <v>1.34549036394303</v>
@@ -651,12 +867,12 @@
         <v>2.0519062367994501</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>47655.592980000001</v>
+      <c r="B5" s="5">
+        <v>47.655592980000002</v>
       </c>
       <c r="C5" s="4">
         <v>1.1988313696409101</v>
@@ -665,12 +881,12 @@
         <v>1.76966574591721</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>43022.9728599999</v>
+      <c r="B6" s="5">
+        <v>43.022972859999904</v>
       </c>
       <c r="C6" s="4">
         <v>1.35622750086781</v>
@@ -679,12 +895,12 @@
         <v>2.0274505693372702</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>47717.758479999997</v>
+      <c r="B7" s="5">
+        <v>47.717758480000001</v>
       </c>
       <c r="C7" s="4">
         <v>1.2713335604528599</v>
@@ -693,12 +909,12 @@
         <v>1.9370023035314501</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>44691.954799999898</v>
+      <c r="B8" s="5">
+        <v>44.691954799999898</v>
       </c>
       <c r="C8" s="4">
         <v>1.1709738066648601</v>
@@ -707,12 +923,12 @@
         <v>1.83636221780989</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>41618.95018</v>
+      <c r="B9" s="5">
+        <v>41.618950179999999</v>
       </c>
       <c r="C9" s="4">
         <v>1.40231431540415</v>
@@ -721,12 +937,12 @@
         <v>1.9232075519181799</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>52404.009400000003</v>
+      <c r="B10" s="5">
+        <v>52.4040094</v>
       </c>
       <c r="C10" s="4">
         <v>1.2654314150225701</v>
@@ -735,12 +951,12 @@
         <v>1.8873003490049101</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>45185.495479999903</v>
+      <c r="B11" s="5">
+        <v>45.185495479999901</v>
       </c>
       <c r="C11" s="4">
         <v>1.33092363893675</v>
@@ -749,13 +965,12 @@
         <v>2.0251789070882502</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
+    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B12" s="5">
-        <f>AVERAGE(B2:B11)</f>
-        <v>46041.248641999955</v>
+        <v>46.041248641999999</v>
       </c>
       <c r="C12" s="6">
         <f>AVERAGE(C2:C11)</f>
@@ -766,10 +981,43 @@
         <v>1.9166013435207401</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="2:2" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:2" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="2:2" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:2" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:2" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:2" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="2:2" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="2:2" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="2:2" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -779,35 +1027,35 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="4" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" customWidth="1"/>
+    <col min="2" max="4" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>41194.5504</v>
+        <v>41.194550399999997</v>
       </c>
       <c r="C2" s="4">
         <v>1.18552767121475</v>
@@ -816,12 +1064,12 @@
         <v>1.82403784322462</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>40596.865700000002</v>
+        <v>40.596865700000002</v>
       </c>
       <c r="C3" s="4">
         <v>1.1506345423203601</v>
@@ -830,12 +1078,12 @@
         <v>1.83149853065968</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>41427.059800000003</v>
+        <v>41.427059800000002</v>
       </c>
       <c r="C4" s="4">
         <v>1.1654073555620701</v>
@@ -844,12 +1092,12 @@
         <v>1.7396026842649399</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>38706.744100000004</v>
+        <v>38.706744100000002</v>
       </c>
       <c r="C5" s="4">
         <v>1.1020484926452001</v>
@@ -858,12 +1106,12 @@
         <v>1.7277173916737101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>42943.330999999998</v>
+        <v>42.943331000000001</v>
       </c>
       <c r="C6" s="4">
         <v>1.2057566950038701</v>
@@ -872,12 +1120,12 @@
         <v>1.8075474568149801</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>42380.460500000001</v>
+        <v>42.380460499999998</v>
       </c>
       <c r="C7" s="4">
         <v>1.23879307710057</v>
@@ -886,12 +1134,12 @@
         <v>1.90245893450446</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>42330.889399999898</v>
+        <v>42.330889399999897</v>
       </c>
       <c r="C8" s="4">
         <v>1.2040314604525999</v>
@@ -900,12 +1148,12 @@
         <v>1.8350606087068899</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>43798.388499999899</v>
+        <v>43.798388499999902</v>
       </c>
       <c r="C9" s="4">
         <v>1.2467234379126</v>
@@ -914,12 +1162,12 @@
         <v>1.8681711434911199</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>41008.446900000003</v>
+        <v>41.008446900000003</v>
       </c>
       <c r="C10" s="4">
         <v>1.16313211700446</v>
@@ -928,12 +1176,12 @@
         <v>1.8076635719474601</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>42491.881599999899</v>
+        <v>42.4918815999999</v>
       </c>
       <c r="C11" s="4">
         <v>1.20977625941537</v>
@@ -942,13 +1190,12 @@
         <v>1.84883418569436</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
+    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B12" s="5">
-        <f>AVERAGE(B2:B11)</f>
-        <v>41687.861789999966</v>
+        <v>41.687861789999999</v>
       </c>
       <c r="C12" s="5">
         <f>AVERAGE(C2:C11)</f>
@@ -960,7 +1207,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -972,35 +1219,35 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="4" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" customWidth="1"/>
+    <col min="2" max="4" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>34672.466</v>
+        <v>34.672466</v>
       </c>
       <c r="C2" s="4">
         <v>1.09527396608021</v>
@@ -1009,12 +1256,12 @@
         <v>1.4533414275348899</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>34459.027999999897</v>
+        <v>34.459027999999897</v>
       </c>
       <c r="C3" s="4">
         <v>0.97378145576213104</v>
@@ -1023,12 +1270,12 @@
         <v>1.3201898457201</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>37352.208499999899</v>
+        <v>37.352208499999897</v>
       </c>
       <c r="C4" s="4">
         <v>1.0350206529119099</v>
@@ -1037,12 +1284,12 @@
         <v>1.35743172187981</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>34873.680999999997</v>
+        <v>34.873680999999998</v>
       </c>
       <c r="C5" s="4">
         <v>1.1045272433712201</v>
@@ -1051,12 +1298,12 @@
         <v>1.5735283507061</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>36292.746999999901</v>
+        <v>36.292746999999899</v>
       </c>
       <c r="C6" s="4">
         <v>1.0644341963862001</v>
@@ -1065,12 +1312,12 @@
         <v>1.47106003851537</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>38607.150999999998</v>
+        <v>38.607151000000002</v>
       </c>
       <c r="C7" s="4">
         <v>0.95702997304599402</v>
@@ -1079,12 +1326,12 @@
         <v>1.3333479708828699</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>37397.957000000002</v>
+        <v>37.397956999999998</v>
       </c>
       <c r="C8" s="4">
         <v>1.04072703540861</v>
@@ -1093,12 +1340,12 @@
         <v>1.51714487026041</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>32695.539000000001</v>
+        <v>32.695538999999997</v>
       </c>
       <c r="C9" s="4">
         <v>1.0885975275659701</v>
@@ -1107,12 +1354,12 @@
         <v>1.4866642565863699</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>35880.084000000003</v>
+        <v>35.880083999999997</v>
       </c>
       <c r="C10" s="4">
         <v>0.97169776138470199</v>
@@ -1121,12 +1368,12 @@
         <v>1.25526179112348</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>37240.141499999998</v>
+        <v>37.2401415</v>
       </c>
       <c r="C11" s="4">
         <v>1.00403460915654</v>
@@ -1135,13 +1382,12 @@
         <v>1.38068931310942</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
+    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B12" s="5">
-        <f>AVERAGE(B2:B11)</f>
-        <v>35947.100299999969</v>
+        <v>35.947100300000002</v>
       </c>
       <c r="C12" s="5">
         <f>AVERAGE(C2:C11)</f>
@@ -1153,7 +1399,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1164,190 +1410,591 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.796875" customWidth="1"/>
+    <col min="2" max="4" width="11.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>33.253569300000002</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.94815186898159798</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.39193080018964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>32.285537699999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.91987728754942399</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.3319869949882199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>29.443010599999901</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.84946961157124901</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.2646207513125001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>31.912497899999899</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.92713077311556702</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.3320912736477599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>31.8208248</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.91691630757996401</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.3252747538154499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>32.230656999999901</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.92727578057321602</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.3738428875553601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>31.248014999999899</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.908833520566529</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.38562267172909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>32.026810900000001</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.92183984503713801</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.29950882274996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>31.287915299999899</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.91470117015767105</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.36139422858892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>33.0844282999999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.94471066062887199</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.34837828330106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>31.859326679999899</v>
+      </c>
+      <c r="C12" s="5">
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.91789068257612283</v>
+      </c>
+      <c r="D12" s="5">
+        <f>AVERAGE(D2:D11)</f>
+        <v>1.341465146787796</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="4" width="11.77734375" customWidth="1"/>
+    <col min="1" max="4" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>33253.569300000003</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.94815186898159798</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1.39193080018964</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>32285.537700000001</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.91987728754942399</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.3319869949882199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>29443.0105999999</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.84946961157124901</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.2646207513125001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>31912.4978999999</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.92713077311556702</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.3320912736477599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>31820.824799999999</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.91691630757996401</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.3252747538154499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>32230.656999999901</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.92727578057321602</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.3738428875553601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>31248.014999999901</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.908833520566529</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.38562267172909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>32026.8109</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.92183984503713801</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1.29950882274996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>31287.915299999899</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.91470117015767105</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1.36139422858892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>33084.428299999898</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.94471066062887199</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1.34837828330106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5">
-        <f>AVERAGE(B2:B11)</f>
-        <v>31859.32667999994</v>
-      </c>
-      <c r="C12" s="5">
-        <f>AVERAGE(C2:C11)</f>
-        <v>0.91789068257612283</v>
-      </c>
-      <c r="D12" s="5">
-        <f>AVERAGE(D2:D11)</f>
-        <v>1.341465146787796</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>